--- a/WarOfWLKs/Assets/Tools/ReadExcel/Config/Excel/Localization.xlsx
+++ b/WarOfWLKs/Assets/Tools/ReadExcel/Config/Excel/Localization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="ChineseSimplified" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>返回主菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你马撕拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>your mother died</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母死</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -621,6 +633,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -630,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,6 +757,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -746,10 +774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -850,6 +878,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WarOfWLKs/Assets/Tools/ReadExcel/Config/Excel/Localization.xlsx
+++ b/WarOfWLKs/Assets/Tools/ReadExcel/Config/Excel/Localization.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -83,14 +83,6 @@
     <t>再生</t>
   </si>
   <si>
-    <t>退出游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuitGame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加入房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Novice trial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W&lt;size=5&gt;ar&lt;/size&gt;O&lt;size=5&gt;f&lt;/size&gt;W&lt;size=5&gt;lks&lt;/size&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>終了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初心者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,11 +142,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>your mother died</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>母死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言語</t>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your mother died</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复密码</t>
+  </si>
+  <si>
+    <t>重复密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パスワード再度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒント</t>
+  </si>
+  <si>
+    <t>Tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わかった</t>
+  </si>
+  <si>
+    <t>用户名密码错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -606,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -614,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -622,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -630,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -638,22 +734,94 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -661,7 +829,7 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -677,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -685,31 +853,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -717,52 +885,119 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -774,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -843,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -851,7 +1086,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -859,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -867,7 +1102,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -875,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -883,12 +1118,76 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WarOfWLKs/Assets/Tools/ReadExcel/Config/Excel/Localization.xlsx
+++ b/WarOfWLKs/Assets/Tools/ReadExcel/Config/Excel/Localization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="7305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChineseSimplified" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新手试玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W&lt;size=5&gt;ar&lt;/size&gt;O&lt;size=5&gt;f&lt;/size&gt;W&lt;size=5&gt;lks&lt;/size&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初心者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Back</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,9 +211,6 @@
   </si>
   <si>
     <t>重复密码</t>
-  </si>
-  <si>
-    <t>重复密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,6 +248,18 @@
   </si>
   <si>
     <t>用户名密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameIntro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゲーム紹介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -694,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -710,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -718,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -726,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -734,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -742,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -750,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -758,7 +759,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -766,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -774,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -782,7 +783,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -790,7 +791,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -798,7 +799,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -806,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +822,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -866,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -874,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -890,7 +891,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -906,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -914,10 +915,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -925,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -933,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -941,7 +942,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -949,7 +950,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -957,7 +958,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -965,7 +966,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -973,7 +974,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -981,7 +982,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -989,7 +990,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -997,13 +998,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1011,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1078,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1086,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1094,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1102,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -1110,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -1118,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -1126,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -1134,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1142,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -1150,7 +1151,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -1158,7 +1159,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -1166,7 +1167,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -1174,7 +1175,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -1182,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/WarOfWLKs/Assets/Tools/ReadExcel/Config/Excel/Localization.xlsx
+++ b/WarOfWLKs/Assets/Tools/ReadExcel/Config/Excel/Localization.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -130,14 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你马撕拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Your mother died</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +248,45 @@
   </si>
   <si>
     <t>ゲーム紹介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username or password is incorrect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユーザー名かパスワードが間違っています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=orange&gt;扔苹果之术！&lt;/color&gt;
+扔出一个你最爱的苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=orange&gt;りんごを投げる！&lt;/color&gt;
+好きなりんごを1つ投げる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=orange&gt;throw apples！&lt;/color&gt;
+throw your apple out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=yellow&gt;呐喊！&lt;/color&gt;
+你大吼一声，把人吓跑了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=yellow&gt;Shout&lt;/color&gt;
+You screamed and scared people away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=yellow&gt;叫ぶ！&lt;/color&gt;
+あなたは叫び
+人々を怖がらせた</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,12 +339,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -711,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -730,12 +763,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -743,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -751,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -759,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -767,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -775,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -783,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -791,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -799,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -807,7 +840,15 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -819,10 +860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,7 +932,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -907,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -918,7 +959,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -929,12 +970,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="81" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -942,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -950,7 +991,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -958,7 +999,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -966,7 +1007,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -974,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -982,7 +1023,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -990,7 +1031,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -998,7 +1039,23 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="81" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1010,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1079,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1095,7 +1152,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1114,12 +1171,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="108" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -1127,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -1135,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1143,7 +1200,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -1151,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -1159,7 +1216,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -1167,7 +1224,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -1175,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -1183,7 +1240,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="108" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/WarOfWLKs/Assets/Tools/ReadExcel/Config/Excel/Localization.xlsx
+++ b/WarOfWLKs/Assets/Tools/ReadExcel/Config/Excel/Localization.xlsx
@@ -275,16 +275,19 @@
   </si>
   <si>
     <t>&lt;color=yellow&gt;呐喊！&lt;/color&gt;
+蓄力！！！！
 你大吼一声，把人吓跑了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;color=yellow&gt;Shout&lt;/color&gt;
+Charging！！！
 You screamed and scared people away</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;color=yellow&gt;叫ぶ！&lt;/color&gt;
+充電！！！
 あなたは叫び
 人々を怖がらせた</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -843,7 +846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -862,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1050,7 +1053,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="81" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="108" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="108" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="135" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
